--- a/extracted_excel/Homa_gendered_enterprise.xlsx
+++ b/extracted_excel/Homa_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Homa</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -151,27 +145,18 @@
     <t>Preference at particular value chains node like youths preferring value chains that are less labour intensive and have quick returns on investments Women prefer engaging in value chains predominated by other women and with low initial investment capital Women preferences in working in groups for sustainability Men dominates in value chain nodes that are high in capital and labour intensive The elder prefer value chains that are less labour intensive and low management</t>
   </si>
   <si>
-    <t>Group Value chain Youth Rabbits Poultry Horticulture Women Sorghum Cassava Africa leafy vegetables Sweet potato Groundnuts Poultry Goats Sheep Men Dairy Beef Sugarcane Sunflower Soya beans Elderly Bee keeping Cotton Poultry Dairy/beef</t>
+    <t>Rabbits Poultry Horticulture</t>
   </si>
   <si>
     <t>Refer to table above</t>
   </si>
   <si>
-    <t>less labour intensive and quick returns on investments Women prefer engaging in value chains predominated by other women and with low initial investment capital working in groups for sustainability</t>
+    <t>Sorghum Cassava Africa leafy vegetables Sweet potato Groundnuts Poultry Goats Sheep</t>
   </si>
   <si>
     <t>Social norms e.g land preparation, Start of planting season, limitation to attending Land ownership Collateral in loan acquisition</t>
   </si>
   <si>
-    <t>Crops enterprises: Activity MEN WOMEN Youth Elderly Reason Input acquisition Men Women Elderly Youth have limited access to resources Decision on LAND USE Men Men owns land Land preparation Men Women Youth Labour intensive (eldely) Weeding Men Women Youth Labour intensive (elderly Harvesting Men Women Youth Time consuming (eldery) Decision making on harvested produce Men Women Elderly Youth do not own the point of usage Control of income Men Elderly Men decides on use of income Livestock value chain: Activity MEN WOMEN Youth Elderly Reason Input acquisition Men Women Elderly Youth have limited access to resources Decision on value chain Men Men owns the value chain Housing Men Elderly Labour intensive Feeding Men Women Labour intensive (elderly Harvesting Men Culture (men and male youth) Decision making on harvested produce Men Women Elderly Youth do not own the point of usage Control of income Men Elderly Men decides on use of income</t>
-  </si>
-  <si>
-    <t>No response provided</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Economic empowerment for special group interest</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>Lack of interest to use of ICT tools High cost of the ICT tools Illiteracy level on digital skills Preference on the other competing basic needs to purchase of bundles Limited access to Cyber security Social stereotypes</t>
   </si>
   <si>
-    <t>a. land, b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services c. Access to training and knowledge/extension men have more access to training compared to women, youth and the elderly d. Access to information as market, weather About 90% of the youth have access to information of digital platform and their high interests due to literacy and ownership of ICT tools e. Access to technology eg ICT, digital gadgets, internet, digital literacy About 90% of the youth have access to information of digital platform and their high interests due to literacy and ownership of ICT tools</t>
-  </si>
-  <si>
     <t>Generally, there very high demand for agricultural commodities in the market</t>
   </si>
   <si>
@@ -199,7 +181,7 @@
     <t>As above</t>
   </si>
   <si>
-    <t>Favorable weather condition, Labour,</t>
+    <t>• Favorable weather condition, • Labour, • Land • Availability of credit facilities (banks, saccos, Village Saving Loaning Association</t>
   </si>
   <si>
     <t>Varies with enterprise due to differences in agro-ecological conditions</t>
@@ -208,13 +190,10 @@
     <t>Promoting value addition Observing seasonality Improvement of infrastructure Availing market information to both farmers and marketers Promotion and adoption of irrigation Promotion of new production technologies Creation of affordable of internet</t>
   </si>
   <si>
-    <t>Production data (area coverage, productivity) Market participation (product lines, quantities sold) No of employment opportunities created</t>
-  </si>
-  <si>
     <t>Sustainable Development Goals (SDGS) Agricultural Sector Transformation Growth Strategy (ASTGS) Sexual Gender Based Violence (SGBV) Africa Union Agenda 2063</t>
   </si>
   <si>
-    <t>Women empowerment policy</t>
+    <t>Women empowerment policy Access to credits Access to Government Procurement Opportunities (AGPO</t>
   </si>
   <si>
     <t>Reinforcement and implementation of the existing legal frame work Continuous sensitization of community on existing legal frame work</t>
@@ -223,7 +202,7 @@
     <t>Enabling policy County climate policy 2023 Gender mainstreaming policy in municipality</t>
   </si>
   <si>
-    <t>Financial support (purchase of ICT gadgets, Establishment/host of servers, policy development) Technical trainings on ATLAS, digital data collection Collaboration between Agrivuma, RCMRD and county on Digital data management [UNLINKED TABLE DATA]: Value chain | Criteria Cotton | Historical background Climatic condition (soil, temperature, rainfall) Market demands Gender involvement Land availability Reduce importation Edible oil (G/nuts, soya, sunflower) | Reduction of imports Food security Creation of employment Reduced cost of living at the household level Cereal (sorghum, maize) | Productivity at 25% Women and youth economic empowerment at 25% Climate resilience and environmental sustainability at 20% Market led at 20% Sustainability at 10% Root and tuber crop (sweet potato, cassava) | Historical background Climatic condition (soil, temperature, rainfall) Market demands Gender involvement Land availability Poultry | Productivity at 25% Women and youth economic empowerment at 25% Climate resilience and environmental sustainability at 20% Market led at 20% Sustainability at 10% Dairy | Historical background Climatic condition (soil, temperature, rainfall) Market demands Gender involvement Land availability Reduce importation Apiculture | Reduced importation Environmental sustainability Climatic condition Economic empowerment for special group interest [UNLINKED TABLE DATA]: Group | Value chain Youth | Rabbits Poultry Horticulture Women | Sorghum Cassava Africa leafy vegetables Sweet potato Groundnuts Poultry Goats Sheep Men | Dairy Beef Sugarcane Sunflower Soya beans Elderly | Bee keeping Cotton Poultry Dairy/beef [UNLINKED TABLE DATA]: Activity | MEN | WOMEN | Youth | Elderly | Reason Input acquisition | Men | Women | --- | Elderly | Youth have limited access to resources Decision on LAND USE | Men | --- | --- | --- | Men owns land Land preparation | Men | Women | Youth | --- | Labour intensive (eldely) Weeding | Men | Women | Youth | --- | Labour intensive (elderly Harvesting | Men | Women | Youth | --- | Time consuming (eldery) Decision making on harvested produce | Men | Women | --- | Elderly | Youth do not own the point of usage Control of income | Men | --- | --- | Elderly | Men decides on use of income [UNLINKED TABLE DATA]: Activity | MEN | WOMEN | Youth | Elderly | Reason Input acquisition | Men | Women | --- | Elderly | Youth have limited access to resources Decision on value chain | Men | --- | --- | --- | Men owns the value chain Housing | Men | --- | --- | Elderly | Labour intensive Feeding | Men | Women | --- | --- | Labour intensive (elderly Harvesting | Men | --- | --- | --- | Culture (men and male youth) Decision making on harvested produce | Men | Women | --- | Elderly | Youth do not own the point of usage Control of income | Men | --- | --- | Elderly | Men decides on use of income</t>
+    <t>Financial support (purchase of ICT gadgets, Establishment/host of servers, policy development) Technical trainings on ATLAS, digital data collection Collaboration between Agrivuma, RCMRD and county on Digital data management</t>
   </si>
 </sst>
 </file>
@@ -581,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,414 +576,321 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
